--- a/Excel Bold 1.xlsx
+++ b/Excel Bold 1.xlsx
@@ -763,11 +763,11 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11" ca="1" si="0">RANDBETWEEN(33,99)</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11" ca="1" si="1">RANDBETWEEN(33,99)</f>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2">
         <v>75</v>
